--- a/notebooks/sym_reg.xlsx
+++ b/notebooks/sym_reg.xlsx
@@ -547,58 +547,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.802</v>
       </c>
       <c r="C2" t="n">
-        <v>0.678</v>
+        <v>0.669</v>
       </c>
       <c r="D2" t="n">
-        <v>0.68</v>
+        <v>0.654</v>
       </c>
       <c r="E2" t="n">
-        <v>0.952</v>
+        <v>0.85</v>
       </c>
       <c r="F2" t="n">
-        <v>0.756</v>
+        <v>0.767</v>
       </c>
       <c r="G2" t="n">
-        <v>0.759</v>
+        <v>0.739</v>
       </c>
       <c r="H2" t="n">
-        <v>0.218</v>
+        <v>0.418</v>
       </c>
       <c r="I2" t="n">
-        <v>0.494</v>
+        <v>0.483</v>
       </c>
       <c r="J2" t="n">
-        <v>0.552</v>
+        <v>0.554</v>
       </c>
       <c r="K2" t="n">
-        <v>0.048</v>
+        <v>0.158</v>
       </c>
       <c r="L2" t="n">
-        <v>0.244</v>
+        <v>0.233</v>
       </c>
       <c r="M2" t="n">
-        <v>0.261</v>
+        <v>0.276</v>
       </c>
       <c r="N2" t="n">
-        <v>0.07100000232458115</v>
+        <v>0.08399999886751175</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1159999966621399</v>
+        <v>0.1059999987483025</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1220000013709068</v>
+        <v>0.1209999993443489</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.05999999865889549</v>
+        <v>0.06800000369548798</v>
       </c>
       <c r="R2" t="n">
+        <v>0.07900000363588333</v>
+      </c>
+      <c r="S2" t="n">
         <v>0.08699999749660492</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.08399999886751175</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -618,58 +618,58 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0.769</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.68</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.584</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.601</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.762</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.6889999999999999</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.699</v>
-      </c>
       <c r="H3" t="n">
-        <v>0.569</v>
+        <v>0.474</v>
       </c>
       <c r="I3" t="n">
-        <v>0.615</v>
+        <v>0.548</v>
       </c>
       <c r="J3" t="n">
-        <v>0.633</v>
+        <v>0.62</v>
       </c>
       <c r="K3" t="n">
-        <v>0.267</v>
+        <v>0.192</v>
       </c>
       <c r="L3" t="n">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="M3" t="n">
-        <v>0.333</v>
+        <v>0.341</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1209999993443489</v>
+        <v>0.1089999973773956</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1509999930858612</v>
+        <v>0.1439999938011169</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1389999985694885</v>
+        <v>0.136000007390976</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.08699999749660492</v>
+        <v>0.08900000154972076</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1150000020861626</v>
+        <v>0.1190000027418137</v>
       </c>
       <c r="S3" t="n">
-        <v>0.09799999743700027</v>
+        <v>0.1040000021457672</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -689,55 +689,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.651</v>
+        <v>0.521</v>
       </c>
       <c r="C4" t="n">
-        <v>0.57</v>
+        <v>0.443</v>
       </c>
       <c r="D4" t="n">
-        <v>0.547</v>
+        <v>0.486</v>
       </c>
       <c r="E4" t="n">
-        <v>0.733</v>
+        <v>0.592</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="G4" t="n">
-        <v>0.656</v>
+        <v>0.582</v>
       </c>
       <c r="H4" t="n">
-        <v>0.516</v>
+        <v>0.658</v>
       </c>
       <c r="I4" t="n">
-        <v>0.667</v>
+        <v>0.632</v>
       </c>
       <c r="J4" t="n">
-        <v>0.625</v>
+        <v>0.702</v>
       </c>
       <c r="K4" t="n">
-        <v>0.267</v>
+        <v>0.417</v>
       </c>
       <c r="L4" t="n">
-        <v>0.356</v>
+        <v>0.4</v>
       </c>
       <c r="M4" t="n">
-        <v>0.36</v>
+        <v>0.441</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1319999992847443</v>
+        <v>0.1239999979734421</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1620000004768372</v>
+        <v>0.119999997317791</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1439999938011169</v>
+        <v>0.1500000059604645</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1040000021457672</v>
+        <v>0.09600000083446503</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1180000007152557</v>
+        <v>0.0949999988079071</v>
       </c>
       <c r="S4" t="n">
         <v>0.1089999973773956</v>
@@ -756,62 +756,62 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>10_gat</t>
+          <t>10_gcn</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.433</v>
+        <v>0.6</v>
       </c>
       <c r="C5" t="n">
-        <v>0.298</v>
+        <v>0.444</v>
       </c>
       <c r="D5" t="n">
-        <v>0.304</v>
+        <v>0.491</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="F5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.607</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="L5" t="n">
         <v>0.467</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.467</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.762</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.775</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.892</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.486</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.556</v>
-      </c>
       <c r="M5" t="n">
-        <v>0.619</v>
+        <v>0.434</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1710000038146973</v>
+        <v>0.1509999930858612</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1809999942779541</v>
+        <v>0.2060000002384186</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2070000022649765</v>
+        <v>0.1749999970197678</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1369999945163727</v>
+        <v>0.1190000027418137</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1420000046491623</v>
+        <v>0.1599999964237213</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1630000025033951</v>
+        <v>0.1319999992847443</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>gat</t>
+          <t>gcn</t>
         </is>
       </c>
     </row>
@@ -831,58 +831,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.321</v>
+        <v>0.158</v>
       </c>
       <c r="C6" t="n">
-        <v>0.353</v>
+        <v>0.377</v>
       </c>
       <c r="D6" t="n">
-        <v>0.259</v>
+        <v>0.231</v>
       </c>
       <c r="E6" t="n">
-        <v>0.438</v>
+        <v>0.333</v>
       </c>
       <c r="F6" t="n">
         <v>0.533</v>
       </c>
       <c r="G6" t="n">
-        <v>0.426</v>
+        <v>0.4</v>
       </c>
       <c r="H6" t="n">
-        <v>0.84</v>
+        <v>0.917</v>
       </c>
       <c r="I6" t="n">
-        <v>0.856</v>
+        <v>0.753</v>
       </c>
       <c r="J6" t="n">
-        <v>0.897</v>
+        <v>0.906</v>
       </c>
       <c r="K6" t="n">
-        <v>0.61</v>
+        <v>0.725</v>
       </c>
       <c r="L6" t="n">
-        <v>0.556</v>
+        <v>0.5</v>
       </c>
       <c r="M6" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2140000015497208</v>
+        <v>0.2119999974966049</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1979999989271164</v>
+        <v>0.1739999949932098</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2119999974966049</v>
+        <v>0.2099999934434891</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1809999942779541</v>
+        <v>0.181999996304512</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1570000052452087</v>
+        <v>0.1439999938011169</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1749999970197678</v>
+        <v>0.1770000010728836</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -898,62 +898,62 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>10_gcn</t>
+          <t>10_gat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.248</v>
+        <v>0.292</v>
       </c>
       <c r="C7" t="n">
-        <v>0.445</v>
+        <v>0.184</v>
       </c>
       <c r="D7" t="n">
-        <v>0.331</v>
+        <v>0.259</v>
       </c>
       <c r="E7" t="n">
-        <v>0.333</v>
+        <v>0.458</v>
       </c>
       <c r="F7" t="n">
-        <v>0.578</v>
+        <v>0.367</v>
       </c>
       <c r="G7" t="n">
-        <v>0.427</v>
+        <v>0.432</v>
       </c>
       <c r="H7" t="n">
-        <v>0.946</v>
+        <v>0.801</v>
       </c>
       <c r="I7" t="n">
-        <v>0.869</v>
+        <v>0.856</v>
       </c>
       <c r="J7" t="n">
-        <v>0.888</v>
+        <v>0.919</v>
       </c>
       <c r="K7" t="n">
-        <v>0.743</v>
+        <v>0.575</v>
       </c>
       <c r="L7" t="n">
-        <v>0.533</v>
+        <v>0.667</v>
       </c>
       <c r="M7" t="n">
-        <v>0.644</v>
+        <v>0.657</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2290000021457672</v>
+        <v>0.1829999983310699</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2049999982118607</v>
+        <v>0.2090000063180923</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2150000035762787</v>
+        <v>0.2199999988079071</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1940000057220459</v>
+        <v>0.1480000019073486</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1570000052452087</v>
+        <v>0.1729999929666519</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1800000071525574</v>
+        <v>0.1759999990463257</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>gcn</t>
+          <t>gat</t>
         </is>
       </c>
     </row>
@@ -973,58 +973,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.95</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.769</v>
+        <v>0.789</v>
       </c>
       <c r="D8" t="n">
-        <v>0.773</v>
+        <v>0.728</v>
       </c>
       <c r="E8" t="n">
-        <v>0.962</v>
+        <v>0.956</v>
       </c>
       <c r="F8" t="n">
-        <v>0.827</v>
+        <v>0.842</v>
       </c>
       <c r="G8" t="n">
-        <v>0.829</v>
+        <v>0.796</v>
       </c>
       <c r="H8" t="n">
-        <v>0.194</v>
+        <v>0.209</v>
       </c>
       <c r="I8" t="n">
-        <v>0.416</v>
+        <v>0.398</v>
       </c>
       <c r="J8" t="n">
-        <v>0.443</v>
+        <v>0.469</v>
       </c>
       <c r="K8" t="n">
-        <v>0.038</v>
+        <v>0.044</v>
       </c>
       <c r="L8" t="n">
-        <v>0.173</v>
+        <v>0.158</v>
       </c>
       <c r="M8" t="n">
-        <v>0.179</v>
+        <v>0.209</v>
       </c>
       <c r="N8" t="n">
-        <v>0.06300000101327896</v>
+        <v>0.0560000017285347</v>
       </c>
       <c r="O8" t="n">
+        <v>0.07800000160932541</v>
+      </c>
+      <c r="P8" t="n">
         <v>0.08600000292062759</v>
       </c>
-      <c r="P8" t="n">
-        <v>0.08900000154972076</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0.04899999871850014</v>
+        <v>0.04500000178813934</v>
       </c>
       <c r="R8" t="n">
-        <v>0.06100000068545341</v>
+        <v>0.05700000002980232</v>
       </c>
       <c r="S8" t="n">
-        <v>0.06300000101327896</v>
+        <v>0.06199999898672104</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1040,62 +1040,62 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>40_sage_scale</t>
+          <t>40_sage_base</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.835</v>
+        <v>0.77</v>
       </c>
       <c r="C9" t="n">
-        <v>0.745</v>
+        <v>0.696</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7</v>
+        <v>0.701</v>
       </c>
       <c r="E9" t="n">
-        <v>0.873</v>
+        <v>0.823</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8</v>
+        <v>0.767</v>
       </c>
       <c r="G9" t="n">
-        <v>0.77</v>
+        <v>0.774</v>
       </c>
       <c r="H9" t="n">
-        <v>0.365</v>
+        <v>0.421</v>
       </c>
       <c r="I9" t="n">
-        <v>0.49</v>
+        <v>0.483</v>
       </c>
       <c r="J9" t="n">
-        <v>0.519</v>
+        <v>0.491</v>
       </c>
       <c r="K9" t="n">
-        <v>0.129</v>
+        <v>0.177</v>
       </c>
       <c r="L9" t="n">
-        <v>0.213</v>
+        <v>0.233</v>
       </c>
       <c r="M9" t="n">
-        <v>0.242</v>
+        <v>0.23</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0949999988079071</v>
+        <v>0.09799999743700027</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1059999987483025</v>
+        <v>0.1019999980926514</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1150000020861626</v>
+        <v>0.1040000021457672</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.07500000298023224</v>
+        <v>0.07900000363588333</v>
       </c>
       <c r="R9" t="n">
-        <v>0.07800000160932541</v>
+        <v>0.07900000363588333</v>
       </c>
       <c r="S9" t="n">
-        <v>0.08399999886751175</v>
+        <v>0.07900000363588333</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1104,69 +1104,69 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>sage_scale</t>
+          <t>sage_base</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>40_sage_base</t>
+          <t>40_sage_scale</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.569</v>
+        <v>0.889</v>
       </c>
       <c r="C10" t="n">
-        <v>0.482</v>
+        <v>0.773</v>
       </c>
       <c r="D10" t="n">
-        <v>0.533</v>
+        <v>0.752</v>
       </c>
       <c r="E10" t="n">
-        <v>0.656</v>
+        <v>0.915</v>
       </c>
       <c r="F10" t="n">
-        <v>0.587</v>
+        <v>0.825</v>
       </c>
       <c r="G10" t="n">
-        <v>0.634</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0.598</v>
+        <v>0.292</v>
       </c>
       <c r="I10" t="n">
-        <v>0.643</v>
+        <v>0.418</v>
       </c>
       <c r="J10" t="n">
-        <v>0.629</v>
+        <v>0.463</v>
       </c>
       <c r="K10" t="n">
-        <v>0.349</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="L10" t="n">
-        <v>0.413</v>
+        <v>0.175</v>
       </c>
       <c r="M10" t="n">
-        <v>0.376</v>
+        <v>0.199</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1260000020265579</v>
+        <v>0.09300000220537186</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1369999945163727</v>
+        <v>0.09799999743700027</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1319999992847443</v>
+        <v>0.1080000028014183</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.1040000021457672</v>
+        <v>0.07400000095367432</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1129999980330467</v>
+        <v>0.07699999958276749</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1030000001192093</v>
+        <v>0.07999999821186066</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1175,69 +1175,69 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>sage_base</t>
+          <t>sage_scale</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>40_gat</t>
+          <t>40_gcn</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.413</v>
+        <v>0.519</v>
       </c>
       <c r="C11" t="n">
-        <v>0.343</v>
+        <v>0.402</v>
       </c>
       <c r="D11" t="n">
-        <v>0.387</v>
+        <v>0.502</v>
       </c>
       <c r="E11" t="n">
+        <v>0.629</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.542</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.621</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.847</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="L11" t="n">
         <v>0.533</v>
       </c>
-      <c r="F11" t="n">
-        <v>0.493</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.526</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.726</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.8159999999999999</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.759</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.5600000000000001</v>
-      </c>
       <c r="M11" t="n">
-        <v>0.508</v>
+        <v>0.414</v>
       </c>
       <c r="N11" t="n">
         <v>0.164000004529953</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1899999976158142</v>
+        <v>0.2230000048875809</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1729999929666519</v>
+        <v>0.1659999936819077</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1330000013113022</v>
+        <v>0.1289999932050705</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1469999998807907</v>
+        <v>0.1630000025033951</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1369999945163727</v>
+        <v>0.1280000060796738</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1246,69 +1246,69 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>gat</t>
+          <t>gcn</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>40_fnn</t>
+          <t>40_gat</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.331</v>
+        <v>0.52</v>
       </c>
       <c r="C12" t="n">
-        <v>0.28</v>
+        <v>0.382</v>
       </c>
       <c r="D12" t="n">
-        <v>0.293</v>
+        <v>0.443</v>
       </c>
       <c r="E12" t="n">
-        <v>0.467</v>
+        <v>0.631</v>
       </c>
       <c r="F12" t="n">
-        <v>0.42</v>
+        <v>0.533</v>
       </c>
       <c r="G12" t="n">
-        <v>0.446</v>
+        <v>0.579</v>
       </c>
       <c r="H12" t="n">
-        <v>0.845</v>
+        <v>0.666</v>
       </c>
       <c r="I12" t="n">
-        <v>0.825</v>
+        <v>0.842</v>
       </c>
       <c r="J12" t="n">
-        <v>0.859</v>
+        <v>0.756</v>
       </c>
       <c r="K12" t="n">
-        <v>0.593</v>
+        <v>0.394</v>
       </c>
       <c r="L12" t="n">
-        <v>0.613</v>
+        <v>0.542</v>
       </c>
       <c r="M12" t="n">
-        <v>0.616</v>
+        <v>0.47</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1920000016689301</v>
+        <v>0.1519999951124191</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1969999969005585</v>
+        <v>0.1949999928474426</v>
       </c>
       <c r="P12" t="n">
-        <v>0.1959999948740005</v>
+        <v>0.1669999957084656</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.1609999984502792</v>
+        <v>0.1169999986886978</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1700000017881393</v>
+        <v>0.1420000046491623</v>
       </c>
       <c r="S12" t="n">
-        <v>0.164000004529953</v>
+        <v>0.1270000040531158</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1317,69 +1317,69 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>fnn</t>
+          <t>gat</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>40_gcn</t>
+          <t>40_fnn</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3</v>
+        <v>0.352</v>
       </c>
       <c r="C13" t="n">
-        <v>0.353</v>
+        <v>0.317</v>
       </c>
       <c r="D13" t="n">
-        <v>0.299</v>
+        <v>0.313</v>
       </c>
       <c r="E13" t="n">
-        <v>0.413</v>
+        <v>0.5</v>
       </c>
       <c r="F13" t="n">
-        <v>0.427</v>
+        <v>0.475</v>
       </c>
       <c r="G13" t="n">
-        <v>0.416</v>
+        <v>0.477</v>
       </c>
       <c r="H13" t="n">
-        <v>0.906</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>0.868</v>
+        <v>0.806</v>
       </c>
       <c r="J13" t="n">
-        <v>0.882</v>
+        <v>0.832</v>
       </c>
       <c r="K13" t="n">
-        <v>0.664</v>
+        <v>0.556</v>
       </c>
       <c r="L13" t="n">
-        <v>0.633</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="M13" t="n">
-        <v>0.649</v>
+        <v>0.579</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2169999927282333</v>
+        <v>0.1899999976158142</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2160000056028366</v>
+        <v>0.1899999976158142</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2129999995231628</v>
+        <v>0.193000003695488</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.1790000051259995</v>
+        <v>0.1580000072717667</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1850000023841858</v>
+        <v>0.1630000025033951</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1770000010728836</v>
+        <v>0.1609999984502792</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>gcn</t>
+          <t>fnn</t>
         </is>
       </c>
     </row>
@@ -1399,58 +1399,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.949</v>
+        <v>0.921</v>
       </c>
       <c r="C14" t="n">
-        <v>0.844</v>
+        <v>0.804</v>
       </c>
       <c r="D14" t="n">
-        <v>0.784</v>
+        <v>0.787</v>
       </c>
       <c r="E14" t="n">
-        <v>0.961</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>0.883</v>
+        <v>0.853</v>
       </c>
       <c r="G14" t="n">
-        <v>0.837</v>
+        <v>0.84</v>
       </c>
       <c r="H14" t="n">
-        <v>0.197</v>
+        <v>0.245</v>
       </c>
       <c r="I14" t="n">
-        <v>0.343</v>
+        <v>0.4</v>
       </c>
       <c r="J14" t="n">
-        <v>0.423</v>
+        <v>0.444</v>
       </c>
       <c r="K14" t="n">
-        <v>0.039</v>
+        <v>0.06</v>
       </c>
       <c r="L14" t="n">
-        <v>0.117</v>
+        <v>0.151</v>
       </c>
       <c r="M14" t="n">
-        <v>0.168</v>
+        <v>0.171</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0560000017285347</v>
+        <v>0.05700000002980232</v>
       </c>
       <c r="O14" t="n">
-        <v>0.05700000002980232</v>
+        <v>0.07699999958276749</v>
       </c>
       <c r="P14" t="n">
-        <v>0.07599999755620956</v>
+        <v>0.07500000298023224</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0430000014603138</v>
+        <v>0.04399999976158142</v>
       </c>
       <c r="R14" t="n">
-        <v>0.04500000178813934</v>
+        <v>0.05400000140070915</v>
       </c>
       <c r="S14" t="n">
-        <v>0.05299999937415123</v>
+        <v>0.05000000074505806</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1466,62 +1466,62 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>75_sage_base</t>
+          <t>75_sage_scale</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.78</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.721</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.665</v>
+        <v>0.744</v>
       </c>
       <c r="E15" t="n">
-        <v>0.829</v>
+        <v>0.86</v>
       </c>
       <c r="F15" t="n">
-        <v>0.784</v>
+        <v>0.858</v>
       </c>
       <c r="G15" t="n">
-        <v>0.741</v>
+        <v>0.805</v>
       </c>
       <c r="H15" t="n">
-        <v>0.413</v>
+        <v>0.374</v>
       </c>
       <c r="I15" t="n">
-        <v>0.473</v>
+        <v>0.377</v>
       </c>
       <c r="J15" t="n">
-        <v>0.524</v>
+        <v>0.482</v>
       </c>
       <c r="K15" t="n">
-        <v>0.171</v>
+        <v>0.14</v>
       </c>
       <c r="L15" t="n">
-        <v>0.219</v>
+        <v>0.142</v>
       </c>
       <c r="M15" t="n">
-        <v>0.264</v>
+        <v>0.205</v>
       </c>
       <c r="N15" t="n">
-        <v>0.09700000286102295</v>
+        <v>0.08100000023841858</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1000000014901161</v>
+        <v>0.0820000022649765</v>
       </c>
       <c r="P15" t="n">
-        <v>0.1049999967217445</v>
+        <v>0.0949999988079071</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.07800000160932541</v>
+        <v>0.06400000303983688</v>
       </c>
       <c r="R15" t="n">
-        <v>0.07900000363588333</v>
+        <v>0.06199999898672104</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0820000022649765</v>
+        <v>0.07199999690055847</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1530,69 +1530,69 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>sage_base</t>
+          <t>sage_scale</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>75_sage_scale</t>
+          <t>75_sage_base</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.88</v>
+        <v>0.765</v>
       </c>
       <c r="C16" t="n">
-        <v>0.778</v>
+        <v>0.748</v>
       </c>
       <c r="D16" t="n">
-        <v>0.738</v>
+        <v>0.664</v>
       </c>
       <c r="E16" t="n">
-        <v>0.908</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>0.832</v>
+        <v>0.8</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8</v>
+        <v>0.741</v>
       </c>
       <c r="H16" t="n">
-        <v>0.303</v>
+        <v>0.429</v>
       </c>
       <c r="I16" t="n">
-        <v>0.42</v>
+        <v>0.447</v>
       </c>
       <c r="J16" t="n">
-        <v>0.511</v>
+        <v>0.532</v>
       </c>
       <c r="K16" t="n">
-        <v>0.092</v>
+        <v>0.184</v>
       </c>
       <c r="L16" t="n">
-        <v>0.171</v>
+        <v>0.2</v>
       </c>
       <c r="M16" t="n">
-        <v>0.219</v>
+        <v>0.267</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0820000022649765</v>
+        <v>0.1040000021457672</v>
       </c>
       <c r="O16" t="n">
-        <v>0.09200000017881393</v>
+        <v>0.0989999994635582</v>
       </c>
       <c r="P16" t="n">
-        <v>0.1089999973773956</v>
+        <v>0.1140000000596046</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.06499999761581421</v>
+        <v>0.08500000089406967</v>
       </c>
       <c r="R16" t="n">
-        <v>0.07100000232458115</v>
+        <v>0.07999999821186066</v>
       </c>
       <c r="S16" t="n">
-        <v>0.07800000160932541</v>
+        <v>0.08900000154972076</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1601,69 +1601,69 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>sage_scale</t>
+          <t>sage_base</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>75_gat</t>
+          <t>75_gcn</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.515</v>
+        <v>0.54</v>
       </c>
       <c r="C17" t="n">
-        <v>0.478</v>
+        <v>0.576</v>
       </c>
       <c r="D17" t="n">
-        <v>0.439</v>
+        <v>0.504</v>
       </c>
       <c r="E17" t="n">
-        <v>0.627</v>
+        <v>0.649</v>
       </c>
       <c r="F17" t="n">
-        <v>0.597</v>
+        <v>0.671</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.621</v>
       </c>
       <c r="H17" t="n">
-        <v>0.664</v>
+        <v>0.648</v>
       </c>
       <c r="I17" t="n">
-        <v>0.712</v>
+        <v>0.663</v>
       </c>
       <c r="J17" t="n">
-        <v>0.743</v>
+        <v>0.708</v>
       </c>
       <c r="K17" t="n">
-        <v>0.396</v>
+        <v>0.373</v>
       </c>
       <c r="L17" t="n">
-        <v>0.437</v>
+        <v>0.36</v>
       </c>
       <c r="M17" t="n">
-        <v>0.472</v>
+        <v>0.416</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1529999971389771</v>
+        <v>0.1509999930858612</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1529999971389771</v>
+        <v>0.1560000032186508</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1620000004768372</v>
+        <v>0.1490000039339066</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.1180000007152557</v>
+        <v>0.1169999986886978</v>
       </c>
       <c r="R17" t="n">
-        <v>0.119999997317791</v>
+        <v>0.1159999966621399</v>
       </c>
       <c r="S17" t="n">
-        <v>0.1239999979734421</v>
+        <v>0.1150000020861626</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1672,69 +1672,69 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>gat</t>
+          <t>gcn</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>75_fnn</t>
+          <t>75_gat</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.333</v>
+        <v>0.476</v>
       </c>
       <c r="C18" t="n">
-        <v>0.317</v>
+        <v>0.471</v>
       </c>
       <c r="D18" t="n">
-        <v>0.311</v>
+        <v>0.378</v>
       </c>
       <c r="E18" t="n">
-        <v>0.489</v>
+        <v>0.596</v>
       </c>
       <c r="F18" t="n">
-        <v>0.469</v>
+        <v>0.587</v>
       </c>
       <c r="G18" t="n">
-        <v>0.475</v>
+        <v>0.52</v>
       </c>
       <c r="H18" t="n">
-        <v>0.833</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>0.836</v>
+        <v>0.718</v>
       </c>
       <c r="J18" t="n">
-        <v>0.828</v>
+        <v>0.769</v>
       </c>
       <c r="K18" t="n">
-        <v>0.571</v>
+        <v>0.426</v>
       </c>
       <c r="L18" t="n">
-        <v>0.587</v>
+        <v>0.444</v>
       </c>
       <c r="M18" t="n">
-        <v>0.579</v>
+        <v>0.517</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1899999976158142</v>
+        <v>0.1519999951124191</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2000000029802322</v>
+        <v>0.1589999943971634</v>
       </c>
       <c r="P18" t="n">
-        <v>0.1879999935626984</v>
+        <v>0.164000004529953</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.1599999964237213</v>
+        <v>0.1190000027418137</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1659999936819077</v>
+        <v>0.119999997317791</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1589999943971634</v>
+        <v>0.1280000060796738</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1743,69 +1743,69 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>fnn</t>
+          <t>gat</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>75_gcn</t>
+          <t>75_fnn</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.326</v>
+        <v>0.292</v>
       </c>
       <c r="C19" t="n">
-        <v>0.293</v>
+        <v>0.324</v>
       </c>
       <c r="D19" t="n">
-        <v>0.283</v>
+        <v>0.297</v>
       </c>
       <c r="E19" t="n">
-        <v>0.439</v>
+        <v>0.457</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4</v>
+        <v>0.458</v>
       </c>
       <c r="G19" t="n">
-        <v>0.416</v>
+        <v>0.461</v>
       </c>
       <c r="H19" t="n">
-        <v>0.875</v>
+        <v>0.837</v>
       </c>
       <c r="I19" t="n">
-        <v>0.902</v>
+        <v>0.846</v>
       </c>
       <c r="J19" t="n">
-        <v>0.899</v>
+        <v>0.826</v>
       </c>
       <c r="K19" t="n">
-        <v>0.629</v>
+        <v>0.596</v>
       </c>
       <c r="L19" t="n">
-        <v>0.669</v>
+        <v>0.6</v>
       </c>
       <c r="M19" t="n">
-        <v>0.659</v>
+        <v>0.587</v>
       </c>
       <c r="N19" t="n">
-        <v>0.2150000035762787</v>
+        <v>0.193000003695488</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2160000056028366</v>
+        <v>0.1990000009536743</v>
       </c>
       <c r="P19" t="n">
-        <v>0.210999995470047</v>
+        <v>0.1870000064373016</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.1770000010728836</v>
+        <v>0.1630000025033951</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1809999942779541</v>
+        <v>0.1630000025033951</v>
       </c>
       <c r="S19" t="n">
-        <v>0.1749999970197678</v>
+        <v>0.1599999964237213</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>gcn</t>
+          <t>fnn</t>
         </is>
       </c>
     </row>
